--- a/capiq_data/in_process_data/IQ21401.xlsx
+++ b/capiq_data/in_process_data/IQ21401.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17648F41-D3C5-47BB-ABD0-0EA58996507E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD9DC5C-1F6E-43C9-B036-121A389C2C41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"ec525502-de5b-4238-b513-abf5ed91933f"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"084ed3c2-c5ff-493d-a886-7d7d04af1a0c"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$59</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$59</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$59</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$59</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$59</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$59</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$59</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$59</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$59</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$59</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$59</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$59</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$59</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$59</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$59</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$59</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$59</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$59</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$59</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$59</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$59</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$59</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$59</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$59</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$59</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$59</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,57 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,76 +784,76 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>38807</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>180.57900000000001</v>
+        <v>260.61599999999999</v>
       </c>
       <c r="D2">
-        <v>3611.953</v>
+        <v>1088.683</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3611.953</v>
+        <v>1088.683</v>
       </c>
       <c r="G2">
-        <v>1818.567</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>38391.156999999999</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>126.44799999999999</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1486.96</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-249.43899999999999</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>851.17600000000004</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2391.1149999999998</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1486.96</v>
+        <v>306.86500000000001</v>
       </c>
       <c r="Q2">
-        <v>-316.65899999999999</v>
+        <v>-16.364999999999998</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>38807</v>
       </c>
       <c r="S2">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>36000.042000000001</v>
+        <v>12950.634</v>
       </c>
       <c r="U2">
-        <v>738.69299999999998</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-431.86500000000001</v>
+        <v>390.58199999999999</v>
       </c>
       <c r="W2">
-        <v>-31.398</v>
+        <v>-338.27800000000002</v>
       </c>
       <c r="X2">
-        <v>131.804</v>
+        <v>-403.97399999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,42 +862,42 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>180.57900000000001</v>
+        <v>260.61599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>38898</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>159.565</v>
+        <v>268.40899999999999</v>
       </c>
       <c r="D3">
-        <v>2771.9760000000001</v>
+        <v>1066.962</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2771.9760000000001</v>
+        <v>1066.962</v>
       </c>
       <c r="G3">
-        <v>1698.636</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>39871.53</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>130.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1487.0119999999999</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>57.186999999999998</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,37 +906,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1026.306</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2573.134</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1544.1990000000001</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>308.85500000000002</v>
+        <v>21.521000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>38898</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>37298.396000000001</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1047.548</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1580.2619999999999</v>
+        <v>-4984.7539999999999</v>
       </c>
       <c r="W3">
-        <v>-62.003</v>
+        <v>-241.47300000000001</v>
       </c>
       <c r="X3">
-        <v>-1241.298</v>
+        <v>5012.4129999999996</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +945,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>159.565</v>
+        <v>268.40899999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38990</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>39.621000000000002</v>
+        <v>285.45999999999998</v>
       </c>
       <c r="D4">
-        <v>1539.2940000000001</v>
+        <v>1127.8030000000001</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1539.2940000000001</v>
+        <v>1127.8030000000001</v>
       </c>
       <c r="G4">
-        <v>1842.7349999999999</v>
+        <v>3837.252</v>
       </c>
       <c r="H4">
-        <v>40588.171000000002</v>
+        <v>23292.782999999999</v>
       </c>
       <c r="I4">
-        <v>141.697</v>
+        <v>31.076000000000001</v>
       </c>
       <c r="J4">
-        <v>1530.056</v>
+        <v>202.75</v>
       </c>
       <c r="K4">
-        <v>101.309</v>
+        <v>948.803</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +989,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1143.348</v>
+        <v>1012.718</v>
       </c>
       <c r="O4">
-        <v>2757.8310000000001</v>
+        <v>1281.923</v>
       </c>
       <c r="P4">
-        <v>1631.365</v>
+        <v>1151.5530000000001</v>
       </c>
       <c r="Q4">
-        <v>-114.069</v>
+        <v>-4.2290000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38990</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>37830.339999999997</v>
+        <v>22010.86</v>
       </c>
       <c r="U4">
-        <v>933.47900000000004</v>
+        <v>92.991</v>
       </c>
       <c r="V4">
-        <v>619.43299999999999</v>
+        <v>-468.48599999999999</v>
       </c>
       <c r="W4">
-        <v>-45.43</v>
+        <v>-241.8895</v>
       </c>
       <c r="X4">
-        <v>-730.18399999999997</v>
+        <v>524.75649999999996</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1028,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>39.621000000000002</v>
+        <v>285.45999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>39082</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-243.40199999999999</v>
+        <v>285.45999999999998</v>
       </c>
       <c r="D5">
-        <v>-3055.99</v>
+        <v>1127.8030000000001</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-3055.99</v>
+        <v>1127.8030000000001</v>
       </c>
       <c r="G5">
-        <v>2118.1419999999998</v>
+        <v>3837.252</v>
       </c>
       <c r="H5">
-        <v>38633.762000000002</v>
+        <v>23292.782999999999</v>
       </c>
       <c r="I5">
-        <v>195.26499999999999</v>
+        <v>31.076000000000001</v>
       </c>
       <c r="J5">
-        <v>1565.2360000000001</v>
+        <v>202.75</v>
       </c>
       <c r="K5">
-        <v>4.87</v>
+        <v>948.803</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1072,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1097.1369999999999</v>
+        <v>1012.718</v>
       </c>
       <c r="O5">
-        <v>2719.34</v>
+        <v>1281.923</v>
       </c>
       <c r="P5">
-        <v>1570.106</v>
+        <v>1151.5530000000001</v>
       </c>
       <c r="Q5">
-        <v>-111.71</v>
+        <v>-4.2290000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>39082</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>35914.421999999999</v>
+        <v>22010.86</v>
       </c>
       <c r="U5">
-        <v>821.76900000000001</v>
+        <v>92.991</v>
       </c>
       <c r="V5">
-        <v>-1307.5809999999999</v>
+        <v>-468.48599999999999</v>
       </c>
       <c r="W5">
-        <v>-24.635000000000002</v>
+        <v>-241.8895</v>
       </c>
       <c r="X5">
-        <v>1198.2429999999999</v>
+        <v>524.75649999999996</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,81 +1111,81 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>-243.40199999999999</v>
+        <v>285.45999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>39172</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>46.137</v>
+        <v>345.02</v>
       </c>
       <c r="D6">
-        <v>924.45600000000002</v>
+        <v>1623.0409999999999</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7.2809999999999997</v>
       </c>
       <c r="F6">
-        <v>924.45600000000002</v>
+        <v>1623.0409999999999</v>
       </c>
       <c r="G6">
-        <v>2727.1869999999999</v>
+        <v>3144.9029999999998</v>
       </c>
       <c r="H6">
-        <v>40377.644999999997</v>
+        <v>25887.304</v>
       </c>
       <c r="I6">
-        <v>188.22399999999999</v>
+        <v>42.887</v>
       </c>
       <c r="J6">
-        <v>1564.7159999999999</v>
+        <v>551.15099999999995</v>
       </c>
       <c r="K6">
-        <v>11.736000000000001</v>
+        <v>1335.6869999999999</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-0.88200000000000001</v>
       </c>
       <c r="N6">
-        <v>1011.026</v>
+        <v>1452.2719999999999</v>
       </c>
       <c r="O6">
-        <v>2692.9949999999999</v>
+        <v>2079.7310000000002</v>
       </c>
       <c r="P6">
-        <v>1576.452</v>
+        <v>1886.838</v>
       </c>
       <c r="Q6">
-        <v>21.492000000000001</v>
+        <v>4.1779999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>39172</v>
       </c>
       <c r="S6">
-        <v>826</v>
+        <v>399</v>
       </c>
       <c r="T6">
-        <v>37684.65</v>
+        <v>23807.573</v>
       </c>
       <c r="U6">
-        <v>843.26099999999997</v>
+        <v>97.168999999999997</v>
       </c>
       <c r="V6">
-        <v>-1100.691</v>
+        <v>-641.28300000000002</v>
       </c>
       <c r="W6">
-        <v>-22.396999999999998</v>
+        <v>-259.13600000000002</v>
       </c>
       <c r="X6">
-        <v>1133.944</v>
+        <v>716.89300000000003</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1194,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>46.137</v>
+        <v>345.02</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>39263</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>190.43600000000001</v>
+        <v>322.37599999999998</v>
       </c>
       <c r="D7">
-        <v>3434.3049999999998</v>
+        <v>1865.89</v>
       </c>
       <c r="E7">
-        <v>209.167</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3434.3049999999998</v>
+        <v>1865.89</v>
       </c>
       <c r="G7">
-        <v>2081.143</v>
+        <v>2784.7669999999998</v>
       </c>
       <c r="H7">
-        <v>43520.411999999997</v>
+        <v>26197.722000000002</v>
       </c>
       <c r="I7">
-        <v>463.84899999999999</v>
+        <v>71.510000000000005</v>
       </c>
       <c r="J7">
-        <v>1721.4390000000001</v>
+        <v>603.17899999999997</v>
       </c>
       <c r="K7">
-        <v>3.9510000000000001</v>
+        <v>97.515000000000001</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-89.174000000000007</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1713.4169999999999</v>
+        <v>225.572</v>
       </c>
       <c r="O7">
-        <v>3505.0189999999998</v>
+        <v>918.98599999999999</v>
       </c>
       <c r="P7">
-        <v>1725.39</v>
+        <v>700.69399999999996</v>
       </c>
       <c r="Q7">
-        <v>-232.048</v>
+        <v>10.074999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>39263</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>40015.392999999996</v>
+        <v>25278.736000000001</v>
       </c>
       <c r="U7">
-        <v>611.21299999999997</v>
+        <v>107.244</v>
       </c>
       <c r="V7">
-        <v>364.49400000000003</v>
+        <v>-632.00300000000004</v>
       </c>
       <c r="W7">
-        <v>-72.688000000000002</v>
+        <v>-50.945</v>
       </c>
       <c r="X7">
-        <v>-570.11699999999996</v>
+        <v>707.31100000000004</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1277,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>190.43600000000001</v>
+        <v>322.37599999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>39355</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>146.261</v>
+        <v>67.683999999999997</v>
       </c>
       <c r="D8">
-        <v>1864.9749999999999</v>
+        <v>-317.44150000000002</v>
       </c>
       <c r="E8">
-        <v>200.03399999999999</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1864.9749999999999</v>
+        <v>-317.44150000000002</v>
       </c>
       <c r="G8">
-        <v>1980.8679999999999</v>
+        <v>1261.6310000000001</v>
       </c>
       <c r="H8">
-        <v>42610.275000000001</v>
+        <v>32842.796000000002</v>
       </c>
       <c r="I8">
-        <v>371.053</v>
+        <v>70.102999999999994</v>
       </c>
       <c r="J8">
-        <v>1120.633</v>
+        <v>2097.6489999999999</v>
       </c>
       <c r="K8">
-        <v>5.2450000000000001</v>
+        <v>333.60500000000002</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1321,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1511.8530000000001</v>
+        <v>463.62299999999999</v>
       </c>
       <c r="O8">
-        <v>2714.4079999999999</v>
+        <v>2575.636</v>
       </c>
       <c r="P8">
-        <v>1125.8779999999999</v>
+        <v>2431.2539999999999</v>
       </c>
       <c r="Q8">
-        <v>127.745</v>
+        <v>82.400499999999994</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>39355</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>39895.866999999998</v>
+        <v>30267.16</v>
       </c>
       <c r="U8">
-        <v>738.95799999999997</v>
+        <v>272.04500000000002</v>
       </c>
       <c r="V8">
-        <v>2371.8980000000001</v>
+        <v>-3624.6075000000001</v>
       </c>
       <c r="W8">
-        <v>-34.914999999999999</v>
+        <v>-430.24349999999998</v>
       </c>
       <c r="X8">
-        <v>-2309.627</v>
+        <v>3694.91</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1360,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>146.261</v>
+        <v>67.683999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>39447</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>127.411</v>
+        <v>67.683999999999997</v>
       </c>
       <c r="D9">
-        <v>2558.9169999999999</v>
+        <v>-317.44150000000002</v>
       </c>
       <c r="E9">
-        <v>308.99</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2558.9169999999999</v>
+        <v>-317.44150000000002</v>
       </c>
       <c r="G9">
-        <v>2478.6419999999998</v>
+        <v>1261.6310000000001</v>
       </c>
       <c r="H9">
-        <v>43648.62</v>
+        <v>32842.796000000002</v>
       </c>
       <c r="I9">
-        <v>291.35599999999999</v>
+        <v>70.102999999999994</v>
       </c>
       <c r="J9">
-        <v>1314.845</v>
+        <v>2097.6489999999999</v>
       </c>
       <c r="K9">
-        <v>23.297000000000001</v>
+        <v>333.60500000000002</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1404,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1614.183</v>
+        <v>463.62299999999999</v>
       </c>
       <c r="O9">
-        <v>3007.92</v>
+        <v>2575.636</v>
       </c>
       <c r="P9">
-        <v>1338.1420000000001</v>
+        <v>2431.2539999999999</v>
       </c>
       <c r="Q9">
-        <v>539.39599999999996</v>
+        <v>82.400499999999994</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>39447</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="T9">
-        <v>40640.699999999997</v>
+        <v>30267.16</v>
       </c>
       <c r="U9">
-        <v>1278.354</v>
+        <v>272.04500000000002</v>
       </c>
       <c r="V9">
-        <v>1882.893</v>
+        <v>-3624.6075000000001</v>
       </c>
       <c r="W9">
-        <v>-30.614000000000001</v>
+        <v>-430.24349999999998</v>
       </c>
       <c r="X9">
-        <v>-1296.067</v>
+        <v>3694.91</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,81 +1443,81 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>127.411</v>
+        <v>67.683999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>39538</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>96.727999999999994</v>
+        <v>-117.898</v>
       </c>
       <c r="D10">
-        <v>1812.24</v>
+        <v>-669.80799999999999</v>
       </c>
       <c r="E10">
-        <v>189.202</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1812.24</v>
+        <v>-669.80799999999999</v>
       </c>
       <c r="G10">
-        <v>6602.2520000000004</v>
+        <v>1098.2660000000001</v>
       </c>
       <c r="H10">
-        <v>44426.353000000003</v>
+        <v>34342.014000000003</v>
       </c>
       <c r="I10">
-        <v>319.17599999999999</v>
+        <v>57.255000000000003</v>
       </c>
       <c r="J10">
-        <v>1123.414</v>
+        <v>3075.91</v>
       </c>
       <c r="K10">
-        <v>232.67599999999999</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-367.67399999999998</v>
       </c>
       <c r="N10">
-        <v>1717.2159999999999</v>
+        <v>222.76499999999999</v>
       </c>
       <c r="O10">
-        <v>3020.8989999999999</v>
+        <v>3318.0909999999999</v>
       </c>
       <c r="P10">
-        <v>1356.09</v>
+        <v>3075.91</v>
       </c>
       <c r="Q10">
-        <v>-47.89</v>
+        <v>-96.992000000000004</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>39538</v>
       </c>
       <c r="S10">
-        <v>926</v>
+        <v>502</v>
       </c>
       <c r="T10">
-        <v>41405.453999999998</v>
+        <v>31023.922999999999</v>
       </c>
       <c r="U10">
-        <v>1230.4639999999999</v>
+        <v>175.053</v>
       </c>
       <c r="V10">
-        <v>1582.4659999999999</v>
+        <v>-1254.0740000000001</v>
       </c>
       <c r="W10">
-        <v>-58.807000000000002</v>
+        <v>-106.286</v>
       </c>
       <c r="X10">
-        <v>-1417.866</v>
+        <v>1190.3030000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1526,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>96.727999999999994</v>
+        <v>-117.898</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>39629</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>193.43899999999999</v>
+        <v>116.801</v>
       </c>
       <c r="D11">
-        <v>2546.8719999999998</v>
+        <v>-311.79300000000001</v>
       </c>
       <c r="E11">
-        <v>240.858</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2546.8719999999998</v>
+        <v>-311.79300000000001</v>
       </c>
       <c r="G11">
-        <v>3214.5459999999998</v>
+        <v>1135.768</v>
       </c>
       <c r="H11">
-        <v>45542.790999999997</v>
+        <v>34012.141000000003</v>
       </c>
       <c r="I11">
-        <v>443.392</v>
+        <v>44.54</v>
       </c>
       <c r="J11">
-        <v>1633.597</v>
+        <v>2676.3409999999999</v>
       </c>
       <c r="K11">
-        <v>101.04900000000001</v>
+        <v>25</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-54.494</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1938.751</v>
+        <v>210.09899999999999</v>
       </c>
       <c r="O11">
-        <v>3765.8780000000002</v>
+        <v>2910.41</v>
       </c>
       <c r="P11">
-        <v>1734.646</v>
+        <v>2701.3409999999999</v>
       </c>
       <c r="Q11">
-        <v>270.20800000000003</v>
+        <v>-57.061</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>39629</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="T11">
-        <v>41776.913</v>
+        <v>31101.731</v>
       </c>
       <c r="U11">
-        <v>1500.672</v>
+        <v>117.992</v>
       </c>
       <c r="V11">
-        <v>1510.1179999999999</v>
+        <v>-135.43299999999999</v>
       </c>
       <c r="W11">
-        <v>-177.35499999999999</v>
+        <v>-83.876999999999995</v>
       </c>
       <c r="X11">
-        <v>-1300.347</v>
+        <v>130.02000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,81 +1609,81 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>193.43899999999999</v>
+        <v>116.801</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>39903</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>15.134</v>
+        <v>-54.582999999999998</v>
       </c>
       <c r="D12">
-        <v>577.80499999999995</v>
+        <v>-676.27499999999998</v>
       </c>
       <c r="E12">
-        <v>428.726</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>577.80499999999995</v>
+        <v>-676.27499999999998</v>
       </c>
       <c r="G12">
-        <v>3084.279</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>44807.644999999997</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>439.80399999999997</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1706.01</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>89.111000000000004</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-22.238</v>
       </c>
       <c r="N12">
-        <v>1985.2190000000001</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3903.067</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1795.1210000000001</v>
+        <v>2422.2739999999999</v>
       </c>
       <c r="Q12">
-        <v>-333.25900000000001</v>
+        <v>55.667000000000002</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>39903</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>40904.578000000001</v>
+        <v>19850.357</v>
       </c>
       <c r="U12">
-        <v>1167.413</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>828.42700000000002</v>
+        <v>-156.82900000000001</v>
       </c>
       <c r="W12">
-        <v>-71.263999999999996</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-1162.826</v>
+        <v>178.971</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1692,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>15.134</v>
+        <v>-54.582999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39994</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>204.74</v>
+        <v>365.82600000000002</v>
       </c>
       <c r="D13">
-        <v>2661.2930000000001</v>
+        <v>2359.0920000000001</v>
       </c>
       <c r="E13">
-        <v>572.55100000000004</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2661.2930000000001</v>
+        <v>2359.0920000000001</v>
       </c>
       <c r="G13">
-        <v>3151.7069999999999</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>48160.050999999999</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>423.28500000000003</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>2027.116</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>269.01</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1736,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2397.88</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>4651.7640000000001</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>2296.1260000000002</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>-55.097000000000001</v>
+        <v>-19.783000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39994</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>43508.286999999997</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>1112.316</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>-542.97500000000002</v>
+        <v>-299.61799999999999</v>
       </c>
       <c r="W13">
-        <v>-116.691</v>
+        <v>-78.707999999999998</v>
       </c>
       <c r="X13">
-        <v>515.28499999999997</v>
+        <v>343.404</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1775,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>204.74</v>
+        <v>365.82600000000002</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>40086</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>277.91300000000001</v>
+        <v>616.66300000000001</v>
       </c>
       <c r="D14">
-        <v>3873.3220000000001</v>
+        <v>4282.6980000000003</v>
       </c>
       <c r="E14">
-        <v>720.245</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>3873.3220000000001</v>
+        <v>4282.6980000000003</v>
       </c>
       <c r="G14">
-        <v>8307.94</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>51427.201000000001</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>453.92500000000001</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1908.606</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>428.959</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1819,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2672.6439999999998</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>4842.3829999999998</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>2337.5650000000001</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>194.06700000000001</v>
+        <v>-6.2679999999999998</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>40086</v>
       </c>
       <c r="S14">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>46584.817999999999</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1306.383</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>782.18299999999999</v>
+        <v>-277.87700000000001</v>
       </c>
       <c r="W14">
-        <v>-66.272999999999996</v>
+        <v>-132.36000000000001</v>
       </c>
       <c r="X14">
-        <v>-569.40200000000004</v>
+        <v>250.19300000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1858,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>277.91300000000001</v>
+        <v>616.66300000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>40178</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>210.041</v>
+        <v>-78.221000000000004</v>
       </c>
       <c r="D15">
-        <v>2499.0390000000002</v>
+        <v>2119.5639999999999</v>
       </c>
       <c r="E15">
-        <v>812.476</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2499.0390000000002</v>
+        <v>2119.5639999999999</v>
       </c>
       <c r="G15">
-        <v>9509.35</v>
+        <v>1993.145</v>
       </c>
       <c r="H15">
-        <v>56402.665999999997</v>
+        <v>30221.111000000001</v>
       </c>
       <c r="I15">
-        <v>654.55700000000002</v>
+        <v>84.113</v>
       </c>
       <c r="J15">
-        <v>3241.7510000000002</v>
+        <v>2060.1849999999999</v>
       </c>
       <c r="K15">
-        <v>417.74299999999999</v>
+        <v>127.288</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-133.297</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>3302.1840000000002</v>
+        <v>636.03200000000004</v>
       </c>
       <c r="O15">
-        <v>6854.4589999999998</v>
+        <v>2859.63</v>
       </c>
       <c r="P15">
-        <v>3659.4940000000001</v>
+        <v>2187.473</v>
       </c>
       <c r="Q15">
-        <v>18.542000000000002</v>
+        <v>318.47699999999998</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>40178</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="T15">
-        <v>49548.207000000002</v>
+        <v>27361.481</v>
       </c>
       <c r="U15">
-        <v>1324.925</v>
+        <v>546.73900000000003</v>
       </c>
       <c r="V15">
-        <v>-903.36</v>
+        <v>387.012</v>
       </c>
       <c r="W15">
-        <v>-138.30799999999999</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>990.37900000000002</v>
+        <v>-34.204000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,81 +1941,81 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>210.041</v>
+        <v>-78.221000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>40268</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>178.215</v>
+        <v>113.836</v>
       </c>
       <c r="D16">
-        <v>2643.9969999999998</v>
+        <v>2869.9670000000001</v>
       </c>
       <c r="E16">
-        <v>543.31100000000004</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2643.9969999999998</v>
+        <v>2869.9670000000001</v>
       </c>
       <c r="G16">
-        <v>13285.267</v>
+        <v>1306.345</v>
       </c>
       <c r="H16">
-        <v>65634.316999999995</v>
+        <v>32624.876</v>
       </c>
       <c r="I16">
-        <v>814.822</v>
+        <v>104.485</v>
       </c>
       <c r="J16">
-        <v>10557.736000000001</v>
+        <v>1276.0060000000001</v>
       </c>
       <c r="K16">
-        <v>356.10700000000003</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-825.59199999999998</v>
       </c>
       <c r="N16">
-        <v>2890.134</v>
+        <v>673.69299999999998</v>
       </c>
       <c r="O16">
-        <v>13869.57</v>
+        <v>2043.1780000000001</v>
       </c>
       <c r="P16">
-        <v>10913.843000000001</v>
+        <v>1327.0060000000001</v>
       </c>
       <c r="Q16">
-        <v>1179.28</v>
+        <v>57.198999999999998</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>40268</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="T16">
-        <v>51764.747000000003</v>
+        <v>30581.698</v>
       </c>
       <c r="U16">
-        <v>2504.2049999999999</v>
+        <v>603.93799999999999</v>
       </c>
       <c r="V16">
-        <v>2770.4169999999999</v>
+        <v>182.268</v>
       </c>
       <c r="W16">
-        <v>-175.44200000000001</v>
+        <v>-21.768000000000001</v>
       </c>
       <c r="X16">
-        <v>-1807.268</v>
+        <v>-152.88399999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2024,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>178.215</v>
+        <v>113.836</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>40359</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>89.938000000000002</v>
+        <v>29.907</v>
       </c>
       <c r="D17">
-        <v>1405.721</v>
+        <v>1312.029</v>
       </c>
       <c r="E17">
-        <v>510.72699999999998</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1405.721</v>
+        <v>1312.029</v>
       </c>
       <c r="G17">
-        <v>11729.91</v>
+        <v>1538.568</v>
       </c>
       <c r="H17">
-        <v>66332.985000000001</v>
+        <v>33816.936999999998</v>
       </c>
       <c r="I17">
-        <v>1312.4269999999999</v>
+        <v>90.991</v>
       </c>
       <c r="J17">
-        <v>10306.77</v>
+        <v>1292.6389999999999</v>
       </c>
       <c r="K17">
-        <v>131.62799999999999</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2068,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3597.5239999999999</v>
+        <v>672.67499999999995</v>
       </c>
       <c r="O17">
-        <v>14219.03</v>
+        <v>2105.5859999999998</v>
       </c>
       <c r="P17">
-        <v>10438.397999999999</v>
+        <v>1292.6389999999999</v>
       </c>
       <c r="Q17">
-        <v>-1031.4449999999999</v>
+        <v>-112.081</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>40359</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T17">
-        <v>52113.955000000002</v>
+        <v>31711.350999999999</v>
       </c>
       <c r="U17">
-        <v>1472.76</v>
+        <v>491.85700000000003</v>
       </c>
       <c r="V17">
-        <v>-349.053</v>
+        <v>-128.93899999999999</v>
       </c>
       <c r="W17">
-        <v>-278.36099999999999</v>
+        <v>-22.347000000000001</v>
       </c>
       <c r="X17">
-        <v>-700.62099999999998</v>
+        <v>19.335000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2107,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>89.938000000000002</v>
+        <v>29.907</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>40451</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-0.58299999999999996</v>
+        <v>8.8559999999999999</v>
       </c>
       <c r="D18">
-        <v>1105.999</v>
+        <v>1820.5450000000001</v>
       </c>
       <c r="E18">
-        <v>561.55399999999997</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1105.999</v>
+        <v>1820.5450000000001</v>
       </c>
       <c r="G18">
-        <v>4498.3059999999996</v>
+        <v>2864.1280000000002</v>
       </c>
       <c r="H18">
-        <v>65872.744999999995</v>
+        <v>34863.959000000003</v>
       </c>
       <c r="I18">
-        <v>1083.6489999999999</v>
+        <v>56.603999999999999</v>
       </c>
       <c r="J18">
-        <v>10837.784</v>
+        <v>1738.376</v>
       </c>
       <c r="K18">
-        <v>147.10599999999999</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2151,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3050.634</v>
+        <v>712.65200000000004</v>
       </c>
       <c r="O18">
-        <v>14168.683999999999</v>
+        <v>2531.7910000000002</v>
       </c>
       <c r="P18">
-        <v>10984.89</v>
+        <v>1738.376</v>
       </c>
       <c r="Q18">
-        <v>-554.67999999999995</v>
+        <v>563.495</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>40451</v>
       </c>
       <c r="S18">
-        <v>1209</v>
+        <v>650</v>
       </c>
       <c r="T18">
-        <v>51704.061000000002</v>
+        <v>32332.168000000001</v>
       </c>
       <c r="U18">
-        <v>918.08</v>
+        <v>1055.3520000000001</v>
       </c>
       <c r="V18">
-        <v>-29.353999999999999</v>
+        <v>1111.932</v>
       </c>
       <c r="W18">
-        <v>-192.88399999999999</v>
+        <v>-16.405000000000001</v>
       </c>
       <c r="X18">
-        <v>-336.56799999999998</v>
+        <v>-538.43200000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2190,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>-0.58299999999999996</v>
+        <v>8.8559999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>40543</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>270.50700000000001</v>
+        <v>180.57900000000001</v>
       </c>
       <c r="D19">
-        <v>2474.1799999999998</v>
+        <v>3611.953</v>
       </c>
       <c r="E19">
-        <v>467.93299999999999</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2474.1799999999998</v>
+        <v>3611.953</v>
       </c>
       <c r="G19">
-        <v>12131.835999999999</v>
+        <v>1818.567</v>
       </c>
       <c r="H19">
-        <v>67286.990000000005</v>
+        <v>38391.156999999999</v>
       </c>
       <c r="I19">
-        <v>1033.2339999999999</v>
+        <v>126.44799999999999</v>
       </c>
       <c r="J19">
-        <v>11717.675999999999</v>
+        <v>1486.96</v>
       </c>
       <c r="K19">
-        <v>173.864</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-837.23500000000001</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>3082.5790000000002</v>
+        <v>851.17600000000004</v>
       </c>
       <c r="O19">
-        <v>15129.445</v>
+        <v>2391.1149999999998</v>
       </c>
       <c r="P19">
-        <v>11891.54</v>
+        <v>1486.96</v>
       </c>
       <c r="Q19">
-        <v>388.89499999999998</v>
+        <v>-316.65899999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>40543</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="T19">
-        <v>52157.544999999998</v>
+        <v>36000.042000000001</v>
       </c>
       <c r="U19">
-        <v>1306.9749999999999</v>
+        <v>738.69299999999998</v>
       </c>
       <c r="V19">
-        <v>943.37199999999996</v>
+        <v>-431.86500000000001</v>
       </c>
       <c r="W19">
-        <v>-151.733</v>
+        <v>-31.398</v>
       </c>
       <c r="X19">
-        <v>-562.39499999999998</v>
+        <v>131.804</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2273,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>270.50700000000001</v>
+        <v>180.57900000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>40633</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>376.30599999999998</v>
+        <v>159.565</v>
       </c>
       <c r="D20">
-        <v>3890.5920000000001</v>
+        <v>2771.9760000000001</v>
       </c>
       <c r="E20">
-        <v>245.46299999999999</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>3890.5920000000001</v>
+        <v>2771.9760000000001</v>
       </c>
       <c r="G20">
-        <v>6048.2460000000001</v>
+        <v>1698.636</v>
       </c>
       <c r="H20">
-        <v>71693.697</v>
+        <v>39871.53</v>
       </c>
       <c r="I20">
-        <v>1308.6420000000001</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="J20">
-        <v>15889.573</v>
+        <v>1487.0119999999999</v>
       </c>
       <c r="K20">
-        <v>165.17400000000001</v>
+        <v>57.186999999999998</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2317,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3383.1309999999999</v>
+        <v>1026.306</v>
       </c>
       <c r="O20">
-        <v>19577.562000000002</v>
+        <v>2573.134</v>
       </c>
       <c r="P20">
-        <v>16054.746999999999</v>
+        <v>1544.1990000000001</v>
       </c>
       <c r="Q20">
-        <v>517.71100000000001</v>
+        <v>308.85500000000002</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>40633</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>52116.135000000002</v>
+        <v>37298.396000000001</v>
       </c>
       <c r="U20">
-        <v>1824.6859999999999</v>
+        <v>1047.548</v>
       </c>
       <c r="V20">
-        <v>55.915999999999997</v>
+        <v>1580.2619999999999</v>
       </c>
       <c r="W20">
-        <v>-203.279</v>
+        <v>-62.003</v>
       </c>
       <c r="X20">
-        <v>600.43700000000001</v>
+        <v>-1241.298</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2356,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>376.30599999999998</v>
+        <v>159.565</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>40724</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-190.58799999999999</v>
+        <v>39.621000000000002</v>
       </c>
       <c r="D21">
-        <v>-948.36500000000001</v>
+        <v>1539.2940000000001</v>
       </c>
       <c r="E21">
-        <v>431.74400000000003</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>-948.36500000000001</v>
+        <v>1539.2940000000001</v>
       </c>
       <c r="G21">
-        <v>5191.1099999999997</v>
+        <v>1842.7349999999999</v>
       </c>
       <c r="H21">
-        <v>69056.926000000007</v>
+        <v>40588.171000000002</v>
       </c>
       <c r="I21">
-        <v>849.40700000000004</v>
+        <v>141.697</v>
       </c>
       <c r="J21">
-        <v>16587.643</v>
+        <v>1530.056</v>
       </c>
       <c r="K21">
-        <v>166.90299999999999</v>
+        <v>101.309</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2400,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2696.6849999999999</v>
+        <v>1143.348</v>
       </c>
       <c r="O21">
-        <v>19556.186000000002</v>
+        <v>2757.8310000000001</v>
       </c>
       <c r="P21">
-        <v>16754.545999999998</v>
+        <v>1631.365</v>
       </c>
       <c r="Q21">
-        <v>-67.768000000000001</v>
+        <v>-114.069</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>40724</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>49500.74</v>
+        <v>37830.339999999997</v>
       </c>
       <c r="U21">
-        <v>1756.9179999999999</v>
+        <v>933.47900000000004</v>
       </c>
       <c r="V21">
-        <v>733.25400000000002</v>
+        <v>619.43299999999999</v>
       </c>
       <c r="W21">
-        <v>-189.167</v>
+        <v>-45.43</v>
       </c>
       <c r="X21">
-        <v>-667.29100000000005</v>
+        <v>-730.18399999999997</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2439,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>-190.58799999999999</v>
+        <v>39.621000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>40816</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>32.256999999999998</v>
+        <v>-243.40199999999999</v>
       </c>
       <c r="D22">
-        <v>1796.4860000000001</v>
+        <v>-3055.99</v>
       </c>
       <c r="E22">
-        <v>365.678</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1796.4860000000001</v>
+        <v>-3055.99</v>
       </c>
       <c r="G22">
-        <v>4497.7160000000003</v>
+        <v>2118.1419999999998</v>
       </c>
       <c r="H22">
-        <v>71042.339000000007</v>
+        <v>38633.762000000002</v>
       </c>
       <c r="I22">
-        <v>733.28</v>
+        <v>195.26499999999999</v>
       </c>
       <c r="J22">
-        <v>18714.597000000002</v>
+        <v>1565.2360000000001</v>
       </c>
       <c r="K22">
-        <v>188.26599999999999</v>
+        <v>4.87</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2483,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2549.2660000000001</v>
+        <v>1097.1369999999999</v>
       </c>
       <c r="O22">
-        <v>21574.754000000001</v>
+        <v>2719.34</v>
       </c>
       <c r="P22">
-        <v>18902.863000000001</v>
+        <v>1570.106</v>
       </c>
       <c r="Q22">
-        <v>-709.178</v>
+        <v>-111.71</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>40816</v>
       </c>
       <c r="S22">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>49467.584999999999</v>
+        <v>35914.421999999999</v>
       </c>
       <c r="U22">
-        <v>1047.74</v>
+        <v>821.76900000000001</v>
       </c>
       <c r="V22">
-        <v>-1347.1379999999999</v>
+        <v>-1307.5809999999999</v>
       </c>
       <c r="W22">
-        <v>-162.43199999999999</v>
+        <v>-24.635000000000002</v>
       </c>
       <c r="X22">
-        <v>798.65700000000004</v>
+        <v>1198.2429999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2522,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>32.256999999999998</v>
+        <v>-243.40199999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>40908</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-329.93900000000002</v>
+        <v>46.137</v>
       </c>
       <c r="D23">
-        <v>-450.12299999999999</v>
+        <v>924.45600000000002</v>
       </c>
       <c r="E23">
-        <v>340.702</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-450.12299999999999</v>
+        <v>924.45600000000002</v>
       </c>
       <c r="G23">
-        <v>3453.3240000000001</v>
+        <v>2727.1869999999999</v>
       </c>
       <c r="H23">
-        <v>34428.582999999999</v>
+        <v>40377.644999999997</v>
       </c>
       <c r="I23">
-        <v>301.32499999999999</v>
+        <v>188.22399999999999</v>
       </c>
       <c r="J23">
-        <v>16827.496999999999</v>
+        <v>1564.7159999999999</v>
       </c>
       <c r="K23">
-        <v>151.99100000000001</v>
+        <v>11.736000000000001</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-657.46100000000001</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2132.7939999999999</v>
+        <v>1011.026</v>
       </c>
       <c r="O23">
-        <v>19520.258000000002</v>
+        <v>2692.9949999999999</v>
       </c>
       <c r="P23">
-        <v>16979.488000000001</v>
+        <v>1576.452</v>
       </c>
       <c r="Q23">
-        <v>233.15299999999999</v>
+        <v>21.492000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>40908</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="T23">
-        <v>14908.325000000001</v>
+        <v>37684.65</v>
       </c>
       <c r="U23">
-        <v>1280.893</v>
+        <v>843.26099999999997</v>
       </c>
       <c r="V23">
-        <v>-738.79</v>
+        <v>-1100.691</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>-22.396999999999998</v>
       </c>
       <c r="X23">
-        <v>909.30799999999999</v>
+        <v>1133.944</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,81 +2605,81 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>-329.93900000000002</v>
+        <v>46.137</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40999</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>99.582999999999998</v>
+        <v>190.43600000000001</v>
       </c>
       <c r="D24">
-        <v>702.49400000000003</v>
+        <v>3434.3049999999998</v>
       </c>
       <c r="E24">
-        <v>427.37400000000002</v>
+        <v>209.167</v>
       </c>
       <c r="F24">
-        <v>702.49400000000003</v>
+        <v>3434.3049999999998</v>
       </c>
       <c r="G24">
-        <v>5966.8969999999999</v>
+        <v>2081.143</v>
       </c>
       <c r="H24">
-        <v>37506.870999999999</v>
+        <v>43520.411999999997</v>
       </c>
       <c r="I24">
-        <v>1168.518</v>
+        <v>463.84899999999999</v>
       </c>
       <c r="J24">
-        <v>17894.036</v>
+        <v>1721.4390000000001</v>
       </c>
       <c r="K24">
-        <v>200.09800000000001</v>
+        <v>3.9510000000000001</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-89.174000000000007</v>
       </c>
       <c r="N24">
-        <v>3406.6550000000002</v>
+        <v>1713.4169999999999</v>
       </c>
       <c r="O24">
-        <v>21822.918000000001</v>
+        <v>3505.0189999999998</v>
       </c>
       <c r="P24">
-        <v>18094.133999999998</v>
+        <v>1725.39</v>
       </c>
       <c r="Q24">
-        <v>231.58199999999999</v>
+        <v>-232.048</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40999</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>15683.953</v>
+        <v>40015.392999999996</v>
       </c>
       <c r="U24">
-        <v>1512.4749999999999</v>
+        <v>611.21299999999997</v>
       </c>
       <c r="V24">
-        <v>-452.12900000000002</v>
+        <v>364.49400000000003</v>
       </c>
       <c r="W24">
-        <v>-148.00299999999999</v>
+        <v>-72.688000000000002</v>
       </c>
       <c r="X24">
-        <v>670.97500000000002</v>
+        <v>-570.11699999999996</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2688,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>99.582999999999998</v>
+        <v>190.43600000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>41090</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>360.35300000000001</v>
+        <v>146.261</v>
       </c>
       <c r="D25">
-        <v>1496.7049999999999</v>
+        <v>1864.9749999999999</v>
       </c>
       <c r="E25">
-        <v>498.483</v>
+        <v>200.03399999999999</v>
       </c>
       <c r="F25">
-        <v>1496.7049999999999</v>
+        <v>1864.9749999999999</v>
       </c>
       <c r="G25">
-        <v>5539.3469999999998</v>
+        <v>1980.8679999999999</v>
       </c>
       <c r="H25">
-        <v>37984.599000000002</v>
+        <v>42610.275000000001</v>
       </c>
       <c r="I25">
-        <v>864.08699999999999</v>
+        <v>371.053</v>
       </c>
       <c r="J25">
-        <v>17589.352999999999</v>
+        <v>1120.633</v>
       </c>
       <c r="K25">
-        <v>198.471</v>
+        <v>5.2450000000000001</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2732,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3069.7710000000002</v>
+        <v>1511.8530000000001</v>
       </c>
       <c r="O25">
-        <v>21162.333999999999</v>
+        <v>2714.4079999999999</v>
       </c>
       <c r="P25">
-        <v>17787.824000000001</v>
+        <v>1125.8779999999999</v>
       </c>
       <c r="Q25">
-        <v>684.32500000000005</v>
+        <v>127.745</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>41090</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>16822.264999999999</v>
+        <v>39895.866999999998</v>
       </c>
       <c r="U25">
-        <v>2196.8000000000002</v>
+        <v>738.95799999999997</v>
       </c>
       <c r="V25">
-        <v>635.09900000000005</v>
+        <v>2371.8980000000001</v>
       </c>
       <c r="W25">
-        <v>-79.373999999999995</v>
+        <v>-34.914999999999999</v>
       </c>
       <c r="X25">
-        <v>101.40900000000001</v>
+        <v>-2309.627</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2771,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>360.35300000000001</v>
+        <v>146.261</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>41182</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>179.31</v>
+        <v>127.411</v>
       </c>
       <c r="D26">
-        <v>921.62300000000005</v>
+        <v>2558.9169999999999</v>
       </c>
       <c r="E26">
-        <v>1084.6020000000001</v>
+        <v>308.99</v>
       </c>
       <c r="F26">
-        <v>921.62300000000005</v>
+        <v>2558.9169999999999</v>
       </c>
       <c r="G26">
-        <v>6420.2359999999999</v>
+        <v>2478.6419999999998</v>
       </c>
       <c r="H26">
-        <v>39002.896999999997</v>
+        <v>43648.62</v>
       </c>
       <c r="I26">
-        <v>920.13599999999997</v>
+        <v>291.35599999999999</v>
       </c>
       <c r="J26">
-        <v>18544.075000000001</v>
+        <v>1314.845</v>
       </c>
       <c r="K26">
-        <v>175.233</v>
+        <v>23.297000000000001</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2815,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2878.7689999999998</v>
+        <v>1614.183</v>
       </c>
       <c r="O26">
-        <v>21884.813999999998</v>
+        <v>3007.92</v>
       </c>
       <c r="P26">
-        <v>18719.308000000001</v>
+        <v>1338.1420000000001</v>
       </c>
       <c r="Q26">
-        <v>312.10199999999998</v>
+        <v>539.39599999999996</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>41182</v>
       </c>
       <c r="S26">
-        <v>1178</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>17118.082999999999</v>
+        <v>40640.699999999997</v>
       </c>
       <c r="U26">
-        <v>2508.902</v>
+        <v>1278.354</v>
       </c>
       <c r="V26">
-        <v>-1006.362</v>
+        <v>1882.893</v>
       </c>
       <c r="W26">
-        <v>-80.266000000000005</v>
+        <v>-30.614000000000001</v>
       </c>
       <c r="X26">
-        <v>1404.17</v>
+        <v>-1296.067</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2854,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>179.31</v>
+        <v>127.411</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>41274</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>267.68400000000003</v>
+        <v>96.727999999999994</v>
       </c>
       <c r="D27">
-        <v>1355.1849999999999</v>
+        <v>1812.24</v>
       </c>
       <c r="E27">
-        <v>389.18299999999999</v>
+        <v>189.202</v>
       </c>
       <c r="F27">
-        <v>1355.1849999999999</v>
+        <v>1812.24</v>
       </c>
       <c r="G27">
-        <v>6231.2650000000003</v>
+        <v>6602.2520000000004</v>
       </c>
       <c r="H27">
-        <v>41635.712</v>
+        <v>44426.353000000003</v>
       </c>
       <c r="I27">
-        <v>1215.222</v>
+        <v>319.17599999999999</v>
       </c>
       <c r="J27">
-        <v>19625.438999999998</v>
+        <v>1123.414</v>
       </c>
       <c r="K27">
-        <v>161.869</v>
+        <v>232.67599999999999</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1154.415</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>3233.1970000000001</v>
+        <v>1717.2159999999999</v>
       </c>
       <c r="O27">
-        <v>23347.914000000001</v>
+        <v>3020.8989999999999</v>
       </c>
       <c r="P27">
-        <v>19787.308000000001</v>
+        <v>1356.09</v>
       </c>
       <c r="Q27">
-        <v>141.29499999999999</v>
+        <v>-47.89</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>41274</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="T27">
-        <v>18287.797999999999</v>
+        <v>41405.453999999998</v>
       </c>
       <c r="U27">
-        <v>2758.3980000000001</v>
+        <v>1230.4639999999999</v>
       </c>
       <c r="V27">
-        <v>-1150.9100000000001</v>
+        <v>1582.4659999999999</v>
       </c>
       <c r="W27">
-        <v>-8.3409999999999993</v>
+        <v>-58.807000000000002</v>
       </c>
       <c r="X27">
-        <v>1306.086</v>
+        <v>-1417.866</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,81 +2937,81 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>267.68400000000003</v>
+        <v>96.727999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>41364</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>413.98700000000002</v>
+        <v>193.43899999999999</v>
       </c>
       <c r="D28">
-        <v>1481.1990000000001</v>
+        <v>2546.8719999999998</v>
       </c>
       <c r="E28">
-        <v>497.26499999999999</v>
+        <v>240.858</v>
       </c>
       <c r="F28">
-        <v>1481.1990000000001</v>
+        <v>2546.8719999999998</v>
       </c>
       <c r="G28">
-        <v>5510.9560000000001</v>
+        <v>3214.5459999999998</v>
       </c>
       <c r="H28">
-        <v>42868.080999999998</v>
+        <v>45542.790999999997</v>
       </c>
       <c r="I28">
-        <v>1041.8689999999999</v>
+        <v>443.392</v>
       </c>
       <c r="J28">
-        <v>19425.253000000001</v>
+        <v>1633.597</v>
       </c>
       <c r="K28">
-        <v>255.071</v>
+        <v>101.04900000000001</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-54.494</v>
       </c>
       <c r="N28">
-        <v>3388.24</v>
+        <v>1938.751</v>
       </c>
       <c r="O28">
-        <v>23325.722000000002</v>
+        <v>3765.8780000000002</v>
       </c>
       <c r="P28">
-        <v>19680.324000000001</v>
+        <v>1734.646</v>
       </c>
       <c r="Q28">
-        <v>-775.04200000000003</v>
+        <v>270.20800000000003</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>41364</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>19542.359</v>
+        <v>41776.913</v>
       </c>
       <c r="U28">
-        <v>2131.6869999999999</v>
+        <v>1500.672</v>
       </c>
       <c r="V28">
-        <v>-911.22500000000002</v>
+        <v>1510.1179999999999</v>
       </c>
       <c r="W28">
-        <v>-159.22800000000001</v>
+        <v>-177.35499999999999</v>
       </c>
       <c r="X28">
-        <v>120.742</v>
+        <v>-1300.347</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3020,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>413.98700000000002</v>
+        <v>193.43899999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>41455</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>161.904</v>
+        <v>15.134</v>
       </c>
       <c r="D29">
-        <v>900.23500000000001</v>
+        <v>577.80499999999995</v>
       </c>
       <c r="E29">
-        <v>819.49199999999996</v>
+        <v>428.726</v>
       </c>
       <c r="F29">
-        <v>900.23500000000001</v>
+        <v>577.80499999999995</v>
       </c>
       <c r="G29">
-        <v>5942.16</v>
+        <v>3084.279</v>
       </c>
       <c r="H29">
-        <v>44305.639000000003</v>
+        <v>44807.644999999997</v>
       </c>
       <c r="I29">
-        <v>942.89599999999996</v>
+        <v>439.80399999999997</v>
       </c>
       <c r="J29">
-        <v>20290.714</v>
+        <v>1706.01</v>
       </c>
       <c r="K29">
-        <v>322.416</v>
+        <v>89.111000000000004</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3064,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3659.9589999999998</v>
+        <v>1985.2190000000001</v>
       </c>
       <c r="O29">
-        <v>24440.205000000002</v>
+        <v>3903.067</v>
       </c>
       <c r="P29">
-        <v>20613.13</v>
+        <v>1795.1210000000001</v>
       </c>
       <c r="Q29">
-        <v>98.408000000000001</v>
+        <v>-333.25900000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>41455</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>19865.434000000001</v>
+        <v>40904.578000000001</v>
       </c>
       <c r="U29">
-        <v>2436.5659999999998</v>
+        <v>1167.413</v>
       </c>
       <c r="V29">
-        <v>-522.07899999999995</v>
+        <v>828.42700000000002</v>
       </c>
       <c r="W29">
-        <v>-88.239000000000004</v>
+        <v>-71.263999999999996</v>
       </c>
       <c r="X29">
-        <v>623.41600000000005</v>
+        <v>-1162.826</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3103,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>161.904</v>
+        <v>15.134</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>41547</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>174.73</v>
+        <v>204.74</v>
       </c>
       <c r="D30">
-        <v>1262.5139999999999</v>
+        <v>2661.2930000000001</v>
       </c>
       <c r="E30">
-        <v>682.40300000000002</v>
+        <v>572.55100000000004</v>
       </c>
       <c r="F30">
-        <v>1262.5139999999999</v>
+        <v>2661.2930000000001</v>
       </c>
       <c r="G30">
-        <v>5741.8239999999996</v>
+        <v>3151.7069999999999</v>
       </c>
       <c r="H30">
-        <v>45834.718999999997</v>
+        <v>48160.050999999999</v>
       </c>
       <c r="I30">
-        <v>1038.8610000000001</v>
+        <v>423.28500000000003</v>
       </c>
       <c r="J30">
-        <v>21193.859</v>
+        <v>2027.116</v>
       </c>
       <c r="K30">
-        <v>330.32900000000001</v>
+        <v>269.01</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3147,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3522.3150000000001</v>
+        <v>2397.88</v>
       </c>
       <c r="O30">
-        <v>25171.919000000002</v>
+        <v>4651.7640000000001</v>
       </c>
       <c r="P30">
-        <v>21524.187999999998</v>
+        <v>2296.1260000000002</v>
       </c>
       <c r="Q30">
-        <v>-75.114999999999995</v>
+        <v>-55.097000000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>41547</v>
       </c>
       <c r="S30">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>20662.8</v>
+        <v>43508.286999999997</v>
       </c>
       <c r="U30">
-        <v>1876.6869999999999</v>
+        <v>1112.316</v>
       </c>
       <c r="V30">
-        <v>-947.952</v>
+        <v>-542.97500000000002</v>
       </c>
       <c r="W30">
-        <v>-89.528999999999996</v>
+        <v>-116.691</v>
       </c>
       <c r="X30">
-        <v>889.83900000000006</v>
+        <v>515.28499999999997</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3186,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>174.73</v>
+        <v>204.74</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>41639</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>178.44300000000001</v>
+        <v>277.91300000000001</v>
       </c>
       <c r="D31">
-        <v>1036.925</v>
+        <v>3873.3220000000001</v>
       </c>
       <c r="E31">
-        <v>331.83</v>
+        <v>720.245</v>
       </c>
       <c r="F31">
-        <v>1036.925</v>
+        <v>3873.3220000000001</v>
       </c>
       <c r="G31">
-        <v>4421.9189999999999</v>
+        <v>8307.94</v>
       </c>
       <c r="H31">
-        <v>47579.152999999998</v>
+        <v>51427.201000000001</v>
       </c>
       <c r="I31">
-        <v>1057.4590000000001</v>
+        <v>453.92500000000001</v>
       </c>
       <c r="J31">
-        <v>22041.271000000001</v>
+        <v>1908.606</v>
       </c>
       <c r="K31">
-        <v>367.51499999999999</v>
+        <v>428.959</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-2750.75</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>3364.6889999999999</v>
+        <v>2672.6439999999998</v>
       </c>
       <c r="O31">
-        <v>25810.215</v>
+        <v>4842.3829999999998</v>
       </c>
       <c r="P31">
-        <v>22408.786</v>
+        <v>2337.5650000000001</v>
       </c>
       <c r="Q31">
-        <v>-927.09699999999998</v>
+        <v>194.06700000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>41639</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="T31">
-        <v>21768.937999999998</v>
+        <v>46584.817999999999</v>
       </c>
       <c r="U31">
-        <v>1880.8340000000001</v>
+        <v>1306.383</v>
       </c>
       <c r="V31">
-        <v>-2157.5</v>
+        <v>782.18299999999999</v>
       </c>
       <c r="W31">
-        <v>-8.3409999999999993</v>
+        <v>-66.272999999999996</v>
       </c>
       <c r="X31">
-        <v>1218.171</v>
+        <v>-569.40200000000004</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,81 +3269,81 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>178.44300000000001</v>
+        <v>277.91300000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>41729</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>688.72199999999998</v>
+        <v>210.041</v>
       </c>
       <c r="D32">
-        <v>2251.83</v>
+        <v>2499.0390000000002</v>
       </c>
       <c r="E32">
-        <v>403.81</v>
+        <v>812.476</v>
       </c>
       <c r="F32">
-        <v>2251.83</v>
+        <v>2499.0390000000002</v>
       </c>
       <c r="G32">
-        <v>5025.4579999999996</v>
+        <v>9509.35</v>
       </c>
       <c r="H32">
-        <v>48572.663999999997</v>
+        <v>56402.665999999997</v>
       </c>
       <c r="I32">
-        <v>1354.4780000000001</v>
+        <v>654.55700000000002</v>
       </c>
       <c r="J32">
-        <v>19972.383000000002</v>
+        <v>3241.7510000000002</v>
       </c>
       <c r="K32">
-        <v>189.33600000000001</v>
+        <v>417.74299999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-133.297</v>
       </c>
       <c r="N32">
-        <v>3697.5210000000002</v>
+        <v>3302.1840000000002</v>
       </c>
       <c r="O32">
-        <v>24285.473999999998</v>
+        <v>6854.4589999999998</v>
       </c>
       <c r="P32">
-        <v>20161.719000000001</v>
+        <v>3659.4940000000001</v>
       </c>
       <c r="Q32">
-        <v>473.37299999999999</v>
+        <v>18.542000000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>41729</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>24287.19</v>
+        <v>49548.207000000002</v>
       </c>
       <c r="U32">
-        <v>2065.172</v>
+        <v>1324.925</v>
       </c>
       <c r="V32">
-        <v>-2380.8069999999998</v>
+        <v>-903.36</v>
       </c>
       <c r="W32">
-        <v>-175.41900000000001</v>
+        <v>-138.30799999999999</v>
       </c>
       <c r="X32">
-        <v>2896.9079999999999</v>
+        <v>990.37900000000002</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3352,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>688.72199999999998</v>
+        <v>210.041</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>41820</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>648.53899999999999</v>
+        <v>178.215</v>
       </c>
       <c r="D33">
-        <v>1924.742</v>
+        <v>2643.9969999999998</v>
       </c>
       <c r="E33">
-        <v>428.928</v>
+        <v>543.31100000000004</v>
       </c>
       <c r="F33">
-        <v>1924.742</v>
+        <v>2643.9969999999998</v>
       </c>
       <c r="G33">
-        <v>5059.777</v>
+        <v>13285.267</v>
       </c>
       <c r="H33">
-        <v>50343.947999999997</v>
+        <v>65634.316999999995</v>
       </c>
       <c r="I33">
-        <v>731.70299999999997</v>
+        <v>814.822</v>
       </c>
       <c r="J33">
-        <v>20266.171999999999</v>
+        <v>10557.736000000001</v>
       </c>
       <c r="K33">
-        <v>142.756</v>
+        <v>356.10700000000003</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3396,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3346.2660000000001</v>
+        <v>2890.134</v>
       </c>
       <c r="O33">
-        <v>24204.037</v>
+        <v>13869.57</v>
       </c>
       <c r="P33">
-        <v>20408.928</v>
+        <v>10913.843000000001</v>
       </c>
       <c r="Q33">
-        <v>12.964</v>
+        <v>1179.28</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>41820</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>26139.911</v>
+        <v>51764.747000000003</v>
       </c>
       <c r="U33">
-        <v>2264.875</v>
+        <v>2504.2049999999999</v>
       </c>
       <c r="V33">
-        <v>-701.74</v>
+        <v>2770.4169999999999</v>
       </c>
       <c r="W33">
-        <v>-97.503</v>
+        <v>-175.44200000000001</v>
       </c>
       <c r="X33">
-        <v>754.35199999999998</v>
+        <v>-1807.268</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3435,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>648.53899999999999</v>
+        <v>178.215</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>41912</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-384.64100000000002</v>
+        <v>89.938000000000002</v>
       </c>
       <c r="D34">
-        <v>-1014.1609999999999</v>
+        <v>1405.721</v>
       </c>
       <c r="E34">
-        <v>396.512</v>
+        <v>510.72699999999998</v>
       </c>
       <c r="F34">
-        <v>-1014.1609999999999</v>
+        <v>1405.721</v>
       </c>
       <c r="G34">
-        <v>4376.7820000000002</v>
+        <v>11729.91</v>
       </c>
       <c r="H34">
-        <v>50743.375</v>
+        <v>66332.985000000001</v>
       </c>
       <c r="I34">
-        <v>671.71900000000005</v>
+        <v>1312.4269999999999</v>
       </c>
       <c r="J34">
-        <v>22341.191999999999</v>
+        <v>10306.77</v>
       </c>
       <c r="K34">
-        <v>96.388999999999996</v>
+        <v>131.62799999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,37 +3479,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2380.518</v>
+        <v>3597.5239999999999</v>
       </c>
       <c r="O34">
-        <v>25360.766</v>
+        <v>14219.03</v>
       </c>
       <c r="P34">
-        <v>22437.580999999998</v>
+        <v>10438.397999999999</v>
       </c>
       <c r="Q34">
-        <v>-653.08900000000006</v>
+        <v>-1031.4449999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>41912</v>
       </c>
       <c r="S34">
-        <v>1301</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>25382.609</v>
+        <v>52113.955000000002</v>
       </c>
       <c r="U34">
-        <v>1751.287</v>
+        <v>1472.76</v>
       </c>
       <c r="V34">
-        <v>-2366.4279999999999</v>
+        <v>-349.053</v>
       </c>
       <c r="W34">
-        <v>-74.441999999999993</v>
+        <v>-278.36099999999999</v>
       </c>
       <c r="X34">
-        <v>1746.5</v>
+        <v>-700.62099999999998</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,208 +3518,208 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>-384.64100000000002</v>
+        <v>89.938000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>42004</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>709.31899999999996</v>
+        <v>-0.58299999999999996</v>
       </c>
       <c r="D35">
-        <v>2479.346</v>
+        <v>1105.999</v>
       </c>
       <c r="E35">
-        <v>485.12700000000001</v>
+        <v>561.55399999999997</v>
       </c>
       <c r="F35">
-        <v>2479.346</v>
+        <v>1105.999</v>
       </c>
       <c r="G35">
-        <v>4777.7420000000002</v>
+        <v>4498.3059999999996</v>
       </c>
       <c r="H35">
-        <v>52004.019</v>
+        <v>65872.744999999995</v>
       </c>
       <c r="I35">
-        <v>615.90099999999995</v>
+        <v>1083.6489999999999</v>
       </c>
       <c r="J35">
-        <v>22262.368999999999</v>
+        <v>10837.784</v>
       </c>
       <c r="K35">
-        <v>58.168999999999997</v>
+        <v>147.10599999999999</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-1806.203</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>2783.72</v>
+        <v>3050.634</v>
       </c>
       <c r="O35">
-        <v>25796.178</v>
+        <v>14168.683999999999</v>
       </c>
       <c r="P35">
-        <v>22472.611000000001</v>
+        <v>10984.89</v>
       </c>
       <c r="Q35">
-        <v>145.256</v>
+        <v>-554.67999999999995</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>42004</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="T35">
-        <v>26207.841</v>
+        <v>51704.061000000002</v>
       </c>
       <c r="U35">
-        <v>1808.3679999999999</v>
+        <v>918.08</v>
       </c>
       <c r="V35">
-        <v>156.27799999999999</v>
+        <v>-29.353999999999999</v>
       </c>
       <c r="W35">
-        <v>-74.959999999999994</v>
+        <v>-192.88399999999999</v>
       </c>
       <c r="X35">
-        <v>7.2480000000000002</v>
+        <v>-336.56799999999998</v>
       </c>
       <c r="Y35">
-        <v>152.07300000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>709.31899999999996</v>
+        <v>-0.58299999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>42094</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>522.73400000000004</v>
+        <v>270.50700000000001</v>
       </c>
       <c r="D36">
-        <v>2293.1990000000001</v>
+        <v>2474.1799999999998</v>
       </c>
       <c r="E36">
-        <v>224.93199999999999</v>
+        <v>467.93299999999999</v>
       </c>
       <c r="F36">
-        <v>2293.1990000000001</v>
+        <v>2474.1799999999998</v>
       </c>
       <c r="G36">
-        <v>4855.2730000000001</v>
+        <v>12131.835999999999</v>
       </c>
       <c r="H36">
-        <v>57524.065000000002</v>
+        <v>67286.990000000005</v>
       </c>
       <c r="I36">
-        <v>616.76</v>
+        <v>1033.2339999999999</v>
       </c>
       <c r="J36">
-        <v>25685.785</v>
+        <v>11717.675999999999</v>
       </c>
       <c r="K36">
-        <v>67.436000000000007</v>
+        <v>173.864</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-837.23500000000001</v>
       </c>
       <c r="N36">
-        <v>2902.2379999999998</v>
+        <v>3082.5790000000002</v>
       </c>
       <c r="O36">
-        <v>29242.002</v>
+        <v>15129.445</v>
       </c>
       <c r="P36">
-        <v>25892.669000000002</v>
+        <v>11891.54</v>
       </c>
       <c r="Q36">
-        <v>403.79</v>
+        <v>388.89499999999998</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>42094</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>28282.062999999998</v>
+        <v>52157.544999999998</v>
       </c>
       <c r="U36">
-        <v>2143.0569999999998</v>
+        <v>1306.9749999999999</v>
       </c>
       <c r="V36">
-        <v>-3270.1219999999998</v>
+        <v>943.37199999999996</v>
       </c>
       <c r="W36">
-        <v>-76.292000000000002</v>
+        <v>-151.733</v>
       </c>
       <c r="X36">
-        <v>3798.377</v>
+        <v>-562.39499999999998</v>
       </c>
       <c r="Y36">
-        <v>139.44800000000001</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>522.73400000000004</v>
+        <v>270.50700000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>42185</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>249.554</v>
+        <v>376.30599999999998</v>
       </c>
       <c r="D37">
-        <v>974.92100000000005</v>
+        <v>3890.5920000000001</v>
       </c>
       <c r="E37">
-        <v>202.018</v>
+        <v>245.46299999999999</v>
       </c>
       <c r="F37">
-        <v>974.92100000000005</v>
+        <v>3890.5920000000001</v>
       </c>
       <c r="G37">
-        <v>5397.5519999999997</v>
+        <v>6048.2460000000001</v>
       </c>
       <c r="H37">
-        <v>57645.048999999999</v>
+        <v>71693.697</v>
       </c>
       <c r="I37">
-        <v>717.15099999999995</v>
+        <v>1308.6420000000001</v>
       </c>
       <c r="J37">
-        <v>25281.202000000001</v>
+        <v>15889.573</v>
       </c>
       <c r="K37">
-        <v>62.85</v>
+        <v>165.17400000000001</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3728,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3168.4769999999999</v>
+        <v>3383.1309999999999</v>
       </c>
       <c r="O37">
-        <v>29059.851999999999</v>
+        <v>19577.562000000002</v>
       </c>
       <c r="P37">
-        <v>25479.125</v>
+        <v>16054.746999999999</v>
       </c>
       <c r="Q37">
-        <v>435.012</v>
+        <v>517.71100000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>42185</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>28585.197</v>
+        <v>52116.135000000002</v>
       </c>
       <c r="U37">
-        <v>2686.9850000000001</v>
+        <v>1824.6859999999999</v>
       </c>
       <c r="V37">
-        <v>-398.94200000000001</v>
+        <v>55.915999999999997</v>
       </c>
       <c r="W37">
-        <v>-76.48</v>
+        <v>-203.279</v>
       </c>
       <c r="X37">
-        <v>874.42499999999995</v>
+        <v>600.43700000000001</v>
       </c>
       <c r="Y37">
-        <v>135.07300000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>249.554</v>
+        <v>376.30599999999998</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>42277</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>523.44200000000001</v>
+        <v>-190.58799999999999</v>
       </c>
       <c r="D38">
-        <v>2159.84</v>
+        <v>-948.36500000000001</v>
       </c>
       <c r="E38">
-        <v>65.153999999999996</v>
+        <v>431.74400000000003</v>
       </c>
       <c r="F38">
-        <v>2159.84</v>
+        <v>-948.36500000000001</v>
       </c>
       <c r="G38">
-        <v>4599.6899999999996</v>
+        <v>5191.1099999999997</v>
       </c>
       <c r="H38">
-        <v>60899.319000000003</v>
+        <v>69056.926000000007</v>
       </c>
       <c r="I38">
-        <v>599.79100000000005</v>
+        <v>849.40700000000004</v>
       </c>
       <c r="J38">
-        <v>27013.284</v>
+        <v>16587.643</v>
       </c>
       <c r="K38">
-        <v>73.537999999999997</v>
+        <v>166.90299999999999</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,247 +3811,247 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2771.9969999999998</v>
+        <v>2696.6849999999999</v>
       </c>
       <c r="O38">
-        <v>30396.945</v>
+        <v>19556.186000000002</v>
       </c>
       <c r="P38">
-        <v>27211.907999999999</v>
+        <v>16754.545999999998</v>
       </c>
       <c r="Q38">
-        <v>-388.154</v>
+        <v>-67.768000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>42277</v>
       </c>
       <c r="S38">
-        <v>1384</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>30502.374</v>
+        <v>49500.74</v>
       </c>
       <c r="U38">
-        <v>2346.7130000000002</v>
+        <v>1756.9179999999999</v>
       </c>
       <c r="V38">
-        <v>-2169.3690000000001</v>
+        <v>733.25400000000002</v>
       </c>
       <c r="W38">
-        <v>-77.117999999999995</v>
+        <v>-189.167</v>
       </c>
       <c r="X38">
-        <v>1804.9390000000001</v>
+        <v>-667.29100000000005</v>
       </c>
       <c r="Y38">
-        <v>125.086</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>523.44200000000001</v>
+        <v>-190.58799999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>42369</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-1280.5239999999999</v>
+        <v>32.256999999999998</v>
       </c>
       <c r="D39">
-        <v>-4713.5479999999998</v>
+        <v>1796.4860000000001</v>
       </c>
       <c r="E39">
-        <v>97.863</v>
+        <v>365.678</v>
       </c>
       <c r="F39">
-        <v>-4713.5479999999998</v>
+        <v>1796.4860000000001</v>
       </c>
       <c r="G39">
-        <v>5169.3980000000001</v>
+        <v>4497.7160000000003</v>
       </c>
       <c r="H39">
-        <v>55601.074999999997</v>
+        <v>71042.339000000007</v>
       </c>
       <c r="I39">
-        <v>768.17399999999998</v>
+        <v>733.28</v>
       </c>
       <c r="J39">
-        <v>26265.381000000001</v>
+        <v>18714.597000000002</v>
       </c>
       <c r="K39">
-        <v>80.718000000000004</v>
+        <v>188.26599999999999</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-2543.694</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>2175.5630000000001</v>
+        <v>2549.2660000000001</v>
       </c>
       <c r="O39">
-        <v>29011.044999999998</v>
+        <v>21574.754000000001</v>
       </c>
       <c r="P39">
-        <v>26459.778999999999</v>
+        <v>18902.863000000001</v>
       </c>
       <c r="Q39">
-        <v>32.627000000000002</v>
+        <v>-709.178</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>42369</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="T39">
-        <v>26590.03</v>
+        <v>49467.584999999999</v>
       </c>
       <c r="U39">
-        <v>1982.2919999999999</v>
+        <v>1047.74</v>
       </c>
       <c r="V39">
-        <v>-1406.4059999999999</v>
+        <v>-1347.1379999999999</v>
       </c>
       <c r="W39">
-        <v>-78.081999999999994</v>
+        <v>-162.43199999999999</v>
       </c>
       <c r="X39">
-        <v>1510.2170000000001</v>
+        <v>798.65700000000004</v>
       </c>
       <c r="Y39">
-        <v>113.68</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>-1280.5239999999999</v>
+        <v>32.256999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>42460</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>706.96900000000005</v>
+        <v>-329.93900000000002</v>
       </c>
       <c r="D40">
-        <v>2886.4949999999999</v>
+        <v>-450.12299999999999</v>
       </c>
       <c r="E40">
-        <v>338.01499999999999</v>
+        <v>340.702</v>
       </c>
       <c r="F40">
-        <v>2886.4949999999999</v>
+        <v>-450.12299999999999</v>
       </c>
       <c r="G40">
-        <v>6047.7550000000001</v>
+        <v>3453.3240000000001</v>
       </c>
       <c r="H40">
-        <v>62110.381999999998</v>
+        <v>34428.582999999999</v>
       </c>
       <c r="I40">
-        <v>1286.345</v>
+        <v>301.32499999999999</v>
       </c>
       <c r="J40">
-        <v>28676.899000000001</v>
+        <v>16827.496999999999</v>
       </c>
       <c r="K40">
-        <v>182.911</v>
+        <v>151.99100000000001</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-657.46100000000001</v>
       </c>
       <c r="N40">
-        <v>3481.893</v>
+        <v>2132.7939999999999</v>
       </c>
       <c r="O40">
-        <v>32715.72</v>
+        <v>19520.258000000002</v>
       </c>
       <c r="P40">
-        <v>28960.99</v>
+        <v>16979.488000000001</v>
       </c>
       <c r="Q40">
-        <v>468.58600000000001</v>
+        <v>233.15299999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>42460</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>29394.662</v>
+        <v>14908.325000000001</v>
       </c>
       <c r="U40">
-        <v>2454.5410000000002</v>
+        <v>1280.893</v>
       </c>
       <c r="V40">
-        <v>-1331.5329999999999</v>
+        <v>-738.79</v>
       </c>
       <c r="W40">
-        <v>-83.596999999999994</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>1810.8969999999999</v>
+        <v>909.30799999999999</v>
       </c>
       <c r="Y40">
-        <v>101.18</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>706.96900000000005</v>
+        <v>-329.93900000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>42551</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1064.8430000000001</v>
+        <v>99.582999999999998</v>
       </c>
       <c r="D41">
-        <v>4382.8220000000001</v>
+        <v>702.49400000000003</v>
       </c>
       <c r="E41">
-        <v>255.87100000000001</v>
+        <v>427.37400000000002</v>
       </c>
       <c r="F41">
-        <v>4382.8220000000001</v>
+        <v>702.49400000000003</v>
       </c>
       <c r="G41">
-        <v>8228.0149999999994</v>
+        <v>5966.8969999999999</v>
       </c>
       <c r="H41">
-        <v>70655.332999999999</v>
+        <v>37506.870999999999</v>
       </c>
       <c r="I41">
-        <v>1509.4449999999999</v>
+        <v>1168.518</v>
       </c>
       <c r="J41">
-        <v>31451.641</v>
+        <v>17894.036</v>
       </c>
       <c r="K41">
-        <v>379.14800000000002</v>
+        <v>200.09800000000001</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4060,1539 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>4488.6689999999999</v>
+        <v>3406.6550000000002</v>
       </c>
       <c r="O41">
-        <v>36611.703000000001</v>
+        <v>21822.918000000001</v>
       </c>
       <c r="P41">
-        <v>31991.954000000002</v>
+        <v>18094.133999999998</v>
       </c>
       <c r="Q41">
-        <v>2149.2979999999998</v>
+        <v>231.58199999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>42551</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>34043.629999999997</v>
+        <v>15683.953</v>
       </c>
       <c r="U41">
-        <v>4363.1049999999996</v>
+        <v>1512.4749999999999</v>
       </c>
       <c r="V41">
-        <v>-1409.4059999999999</v>
+        <v>-452.12900000000002</v>
       </c>
       <c r="W41">
-        <v>-83.825999999999993</v>
+        <v>-148.00299999999999</v>
       </c>
       <c r="X41">
-        <v>3566.2429999999999</v>
+        <v>670.97500000000002</v>
       </c>
       <c r="Y41">
-        <v>161.16499999999999</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>1064.8430000000001</v>
+        <v>99.582999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>42643</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>360.35300000000001</v>
+      </c>
+      <c r="D42">
+        <v>1496.7049999999999</v>
+      </c>
+      <c r="E42">
+        <v>498.483</v>
+      </c>
+      <c r="F42">
+        <v>1496.7049999999999</v>
+      </c>
+      <c r="G42">
+        <v>5539.3469999999998</v>
+      </c>
+      <c r="H42">
+        <v>37984.599000000002</v>
+      </c>
+      <c r="I42">
+        <v>864.08699999999999</v>
+      </c>
+      <c r="J42">
+        <v>17589.352999999999</v>
+      </c>
+      <c r="K42">
+        <v>198.471</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3069.7710000000002</v>
+      </c>
+      <c r="O42">
+        <v>21162.333999999999</v>
+      </c>
+      <c r="P42">
+        <v>17787.824000000001</v>
+      </c>
+      <c r="Q42">
+        <v>684.32500000000005</v>
+      </c>
+      <c r="R42">
+        <v>42643</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>16822.264999999999</v>
+      </c>
+      <c r="U42">
+        <v>2196.8000000000002</v>
+      </c>
+      <c r="V42">
+        <v>635.09900000000005</v>
+      </c>
+      <c r="W42">
+        <v>-79.373999999999995</v>
+      </c>
+      <c r="X42">
+        <v>101.40900000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>360.35300000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>179.31</v>
+      </c>
+      <c r="D43">
+        <v>921.62300000000005</v>
+      </c>
+      <c r="E43">
+        <v>1084.6020000000001</v>
+      </c>
+      <c r="F43">
+        <v>921.62300000000005</v>
+      </c>
+      <c r="G43">
+        <v>6420.2359999999999</v>
+      </c>
+      <c r="H43">
+        <v>39002.896999999997</v>
+      </c>
+      <c r="I43">
+        <v>920.13599999999997</v>
+      </c>
+      <c r="J43">
+        <v>18544.075000000001</v>
+      </c>
+      <c r="K43">
+        <v>175.233</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2878.7689999999998</v>
+      </c>
+      <c r="O43">
+        <v>21884.813999999998</v>
+      </c>
+      <c r="P43">
+        <v>18719.308000000001</v>
+      </c>
+      <c r="Q43">
+        <v>312.10199999999998</v>
+      </c>
+      <c r="R43">
+        <v>42735</v>
+      </c>
+      <c r="S43">
+        <v>1178</v>
+      </c>
+      <c r="T43">
+        <v>17118.082999999999</v>
+      </c>
+      <c r="U43">
+        <v>2508.902</v>
+      </c>
+      <c r="V43">
+        <v>-1006.362</v>
+      </c>
+      <c r="W43">
+        <v>-80.266000000000005</v>
+      </c>
+      <c r="X43">
+        <v>1404.17</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>179.31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>267.68400000000003</v>
+      </c>
+      <c r="D44">
+        <v>1355.1849999999999</v>
+      </c>
+      <c r="E44">
+        <v>389.18299999999999</v>
+      </c>
+      <c r="F44">
+        <v>1355.1849999999999</v>
+      </c>
+      <c r="G44">
+        <v>6231.2650000000003</v>
+      </c>
+      <c r="H44">
+        <v>41635.712</v>
+      </c>
+      <c r="I44">
+        <v>1215.222</v>
+      </c>
+      <c r="J44">
+        <v>19625.438999999998</v>
+      </c>
+      <c r="K44">
+        <v>161.869</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-1154.415</v>
+      </c>
+      <c r="N44">
+        <v>3233.1970000000001</v>
+      </c>
+      <c r="O44">
+        <v>23347.914000000001</v>
+      </c>
+      <c r="P44">
+        <v>19787.308000000001</v>
+      </c>
+      <c r="Q44">
+        <v>141.29499999999999</v>
+      </c>
+      <c r="R44">
+        <v>42825</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>18287.797999999999</v>
+      </c>
+      <c r="U44">
+        <v>2758.3980000000001</v>
+      </c>
+      <c r="V44">
+        <v>-1150.9100000000001</v>
+      </c>
+      <c r="W44">
+        <v>-8.3409999999999993</v>
+      </c>
+      <c r="X44">
+        <v>1306.086</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>267.68400000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>413.98700000000002</v>
+      </c>
+      <c r="D45">
+        <v>1481.1990000000001</v>
+      </c>
+      <c r="E45">
+        <v>497.26499999999999</v>
+      </c>
+      <c r="F45">
+        <v>1481.1990000000001</v>
+      </c>
+      <c r="G45">
+        <v>5510.9560000000001</v>
+      </c>
+      <c r="H45">
+        <v>42868.080999999998</v>
+      </c>
+      <c r="I45">
+        <v>1041.8689999999999</v>
+      </c>
+      <c r="J45">
+        <v>19425.253000000001</v>
+      </c>
+      <c r="K45">
+        <v>255.071</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>3388.24</v>
+      </c>
+      <c r="O45">
+        <v>23325.722000000002</v>
+      </c>
+      <c r="P45">
+        <v>19680.324000000001</v>
+      </c>
+      <c r="Q45">
+        <v>-775.04200000000003</v>
+      </c>
+      <c r="R45">
+        <v>42916</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>19542.359</v>
+      </c>
+      <c r="U45">
+        <v>2131.6869999999999</v>
+      </c>
+      <c r="V45">
+        <v>-911.22500000000002</v>
+      </c>
+      <c r="W45">
+        <v>-159.22800000000001</v>
+      </c>
+      <c r="X45">
+        <v>120.742</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>413.98700000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>161.904</v>
+      </c>
+      <c r="D46">
+        <v>900.23500000000001</v>
+      </c>
+      <c r="E46">
+        <v>819.49199999999996</v>
+      </c>
+      <c r="F46">
+        <v>900.23500000000001</v>
+      </c>
+      <c r="G46">
+        <v>5942.16</v>
+      </c>
+      <c r="H46">
+        <v>44305.639000000003</v>
+      </c>
+      <c r="I46">
+        <v>942.89599999999996</v>
+      </c>
+      <c r="J46">
+        <v>20290.714</v>
+      </c>
+      <c r="K46">
+        <v>322.416</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3659.9589999999998</v>
+      </c>
+      <c r="O46">
+        <v>24440.205000000002</v>
+      </c>
+      <c r="P46">
+        <v>20613.13</v>
+      </c>
+      <c r="Q46">
+        <v>98.408000000000001</v>
+      </c>
+      <c r="R46">
+        <v>43008</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>19865.434000000001</v>
+      </c>
+      <c r="U46">
+        <v>2436.5659999999998</v>
+      </c>
+      <c r="V46">
+        <v>-522.07899999999995</v>
+      </c>
+      <c r="W46">
+        <v>-88.239000000000004</v>
+      </c>
+      <c r="X46">
+        <v>623.41600000000005</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>161.904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>174.73</v>
+      </c>
+      <c r="D47">
+        <v>1262.5139999999999</v>
+      </c>
+      <c r="E47">
+        <v>682.40300000000002</v>
+      </c>
+      <c r="F47">
+        <v>1262.5139999999999</v>
+      </c>
+      <c r="G47">
+        <v>5741.8239999999996</v>
+      </c>
+      <c r="H47">
+        <v>45834.718999999997</v>
+      </c>
+      <c r="I47">
+        <v>1038.8610000000001</v>
+      </c>
+      <c r="J47">
+        <v>21193.859</v>
+      </c>
+      <c r="K47">
+        <v>330.32900000000001</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3522.3150000000001</v>
+      </c>
+      <c r="O47">
+        <v>25171.919000000002</v>
+      </c>
+      <c r="P47">
+        <v>21524.187999999998</v>
+      </c>
+      <c r="Q47">
+        <v>-75.114999999999995</v>
+      </c>
+      <c r="R47">
+        <v>43100</v>
+      </c>
+      <c r="S47">
+        <v>1184</v>
+      </c>
+      <c r="T47">
+        <v>20662.8</v>
+      </c>
+      <c r="U47">
+        <v>1876.6869999999999</v>
+      </c>
+      <c r="V47">
+        <v>-947.952</v>
+      </c>
+      <c r="W47">
+        <v>-89.528999999999996</v>
+      </c>
+      <c r="X47">
+        <v>889.83900000000006</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>174.73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>178.44300000000001</v>
+      </c>
+      <c r="D48">
+        <v>1036.925</v>
+      </c>
+      <c r="E48">
+        <v>331.83</v>
+      </c>
+      <c r="F48">
+        <v>1036.925</v>
+      </c>
+      <c r="G48">
+        <v>4421.9189999999999</v>
+      </c>
+      <c r="H48">
+        <v>47579.152999999998</v>
+      </c>
+      <c r="I48">
+        <v>1057.4590000000001</v>
+      </c>
+      <c r="J48">
+        <v>22041.271000000001</v>
+      </c>
+      <c r="K48">
+        <v>367.51499999999999</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-2750.75</v>
+      </c>
+      <c r="N48">
+        <v>3364.6889999999999</v>
+      </c>
+      <c r="O48">
+        <v>25810.215</v>
+      </c>
+      <c r="P48">
+        <v>22408.786</v>
+      </c>
+      <c r="Q48">
+        <v>-927.09699999999998</v>
+      </c>
+      <c r="R48">
+        <v>43190</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>21768.937999999998</v>
+      </c>
+      <c r="U48">
+        <v>1880.8340000000001</v>
+      </c>
+      <c r="V48">
+        <v>-2157.5</v>
+      </c>
+      <c r="W48">
+        <v>-8.3409999999999993</v>
+      </c>
+      <c r="X48">
+        <v>1218.171</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>178.44300000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>688.72199999999998</v>
+      </c>
+      <c r="D49">
+        <v>2251.83</v>
+      </c>
+      <c r="E49">
+        <v>403.81</v>
+      </c>
+      <c r="F49">
+        <v>2251.83</v>
+      </c>
+      <c r="G49">
+        <v>5025.4579999999996</v>
+      </c>
+      <c r="H49">
+        <v>48572.663999999997</v>
+      </c>
+      <c r="I49">
+        <v>1354.4780000000001</v>
+      </c>
+      <c r="J49">
+        <v>19972.383000000002</v>
+      </c>
+      <c r="K49">
+        <v>189.33600000000001</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>3697.5210000000002</v>
+      </c>
+      <c r="O49">
+        <v>24285.473999999998</v>
+      </c>
+      <c r="P49">
+        <v>20161.719000000001</v>
+      </c>
+      <c r="Q49">
+        <v>473.37299999999999</v>
+      </c>
+      <c r="R49">
+        <v>43281</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>24287.19</v>
+      </c>
+      <c r="U49">
+        <v>2065.172</v>
+      </c>
+      <c r="V49">
+        <v>-2380.8069999999998</v>
+      </c>
+      <c r="W49">
+        <v>-175.41900000000001</v>
+      </c>
+      <c r="X49">
+        <v>2896.9079999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>688.72199999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>648.53899999999999</v>
+      </c>
+      <c r="D50">
+        <v>1924.742</v>
+      </c>
+      <c r="E50">
+        <v>428.928</v>
+      </c>
+      <c r="F50">
+        <v>1924.742</v>
+      </c>
+      <c r="G50">
+        <v>5059.777</v>
+      </c>
+      <c r="H50">
+        <v>50343.947999999997</v>
+      </c>
+      <c r="I50">
+        <v>731.70299999999997</v>
+      </c>
+      <c r="J50">
+        <v>20266.171999999999</v>
+      </c>
+      <c r="K50">
+        <v>142.756</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3346.2660000000001</v>
+      </c>
+      <c r="O50">
+        <v>24204.037</v>
+      </c>
+      <c r="P50">
+        <v>20408.928</v>
+      </c>
+      <c r="Q50">
+        <v>12.964</v>
+      </c>
+      <c r="R50">
+        <v>43373</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>26139.911</v>
+      </c>
+      <c r="U50">
+        <v>2264.875</v>
+      </c>
+      <c r="V50">
+        <v>-701.74</v>
+      </c>
+      <c r="W50">
+        <v>-97.503</v>
+      </c>
+      <c r="X50">
+        <v>754.35199999999998</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>648.53899999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-384.64100000000002</v>
+      </c>
+      <c r="D51">
+        <v>-1014.1609999999999</v>
+      </c>
+      <c r="E51">
+        <v>396.512</v>
+      </c>
+      <c r="F51">
+        <v>-1014.1609999999999</v>
+      </c>
+      <c r="G51">
+        <v>4376.7820000000002</v>
+      </c>
+      <c r="H51">
+        <v>50743.375</v>
+      </c>
+      <c r="I51">
+        <v>671.71900000000005</v>
+      </c>
+      <c r="J51">
+        <v>22341.191999999999</v>
+      </c>
+      <c r="K51">
+        <v>96.388999999999996</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2380.518</v>
+      </c>
+      <c r="O51">
+        <v>25360.766</v>
+      </c>
+      <c r="P51">
+        <v>22437.580999999998</v>
+      </c>
+      <c r="Q51">
+        <v>-653.08900000000006</v>
+      </c>
+      <c r="R51">
+        <v>43465</v>
+      </c>
+      <c r="S51">
+        <v>1301</v>
+      </c>
+      <c r="T51">
+        <v>25382.609</v>
+      </c>
+      <c r="U51">
+        <v>1751.287</v>
+      </c>
+      <c r="V51">
+        <v>-2366.4279999999999</v>
+      </c>
+      <c r="W51">
+        <v>-74.441999999999993</v>
+      </c>
+      <c r="X51">
+        <v>1746.5</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>-384.64100000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>709.31899999999996</v>
+      </c>
+      <c r="D52">
+        <v>2479.346</v>
+      </c>
+      <c r="E52">
+        <v>485.12700000000001</v>
+      </c>
+      <c r="F52">
+        <v>2479.346</v>
+      </c>
+      <c r="G52">
+        <v>4777.7420000000002</v>
+      </c>
+      <c r="H52">
+        <v>52004.019</v>
+      </c>
+      <c r="I52">
+        <v>615.90099999999995</v>
+      </c>
+      <c r="J52">
+        <v>22262.368999999999</v>
+      </c>
+      <c r="K52">
+        <v>58.168999999999997</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-1806.203</v>
+      </c>
+      <c r="N52">
+        <v>2783.72</v>
+      </c>
+      <c r="O52">
+        <v>25796.178</v>
+      </c>
+      <c r="P52">
+        <v>22472.611000000001</v>
+      </c>
+      <c r="Q52">
+        <v>145.256</v>
+      </c>
+      <c r="R52">
+        <v>43555</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>26207.841</v>
+      </c>
+      <c r="U52">
+        <v>1808.3679999999999</v>
+      </c>
+      <c r="V52">
+        <v>156.27799999999999</v>
+      </c>
+      <c r="W52">
+        <v>-74.959999999999994</v>
+      </c>
+      <c r="X52">
+        <v>7.2480000000000002</v>
+      </c>
+      <c r="Y52">
+        <v>152.07300000000001</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>709.31899999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>522.73400000000004</v>
+      </c>
+      <c r="D53">
+        <v>2293.1990000000001</v>
+      </c>
+      <c r="E53">
+        <v>224.93199999999999</v>
+      </c>
+      <c r="F53">
+        <v>2293.1990000000001</v>
+      </c>
+      <c r="G53">
+        <v>4855.2730000000001</v>
+      </c>
+      <c r="H53">
+        <v>57524.065000000002</v>
+      </c>
+      <c r="I53">
+        <v>616.76</v>
+      </c>
+      <c r="J53">
+        <v>25685.785</v>
+      </c>
+      <c r="K53">
+        <v>67.436000000000007</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2902.2379999999998</v>
+      </c>
+      <c r="O53">
+        <v>29242.002</v>
+      </c>
+      <c r="P53">
+        <v>25892.669000000002</v>
+      </c>
+      <c r="Q53">
+        <v>403.79</v>
+      </c>
+      <c r="R53">
+        <v>43646</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>28282.062999999998</v>
+      </c>
+      <c r="U53">
+        <v>2143.0569999999998</v>
+      </c>
+      <c r="V53">
+        <v>-3270.1219999999998</v>
+      </c>
+      <c r="W53">
+        <v>-76.292000000000002</v>
+      </c>
+      <c r="X53">
+        <v>3798.377</v>
+      </c>
+      <c r="Y53">
+        <v>139.44800000000001</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>522.73400000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>249.554</v>
+      </c>
+      <c r="D54">
+        <v>974.92100000000005</v>
+      </c>
+      <c r="E54">
+        <v>202.018</v>
+      </c>
+      <c r="F54">
+        <v>974.92100000000005</v>
+      </c>
+      <c r="G54">
+        <v>5397.5519999999997</v>
+      </c>
+      <c r="H54">
+        <v>57645.048999999999</v>
+      </c>
+      <c r="I54">
+        <v>717.15099999999995</v>
+      </c>
+      <c r="J54">
+        <v>25281.202000000001</v>
+      </c>
+      <c r="K54">
+        <v>62.85</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>3168.4769999999999</v>
+      </c>
+      <c r="O54">
+        <v>29059.851999999999</v>
+      </c>
+      <c r="P54">
+        <v>25479.125</v>
+      </c>
+      <c r="Q54">
+        <v>435.012</v>
+      </c>
+      <c r="R54">
+        <v>43738</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>28585.197</v>
+      </c>
+      <c r="U54">
+        <v>2686.9850000000001</v>
+      </c>
+      <c r="V54">
+        <v>-398.94200000000001</v>
+      </c>
+      <c r="W54">
+        <v>-76.48</v>
+      </c>
+      <c r="X54">
+        <v>874.42499999999995</v>
+      </c>
+      <c r="Y54">
+        <v>135.07300000000001</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>249.554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>523.44200000000001</v>
+      </c>
+      <c r="D55">
+        <v>2159.84</v>
+      </c>
+      <c r="E55">
+        <v>65.153999999999996</v>
+      </c>
+      <c r="F55">
+        <v>2159.84</v>
+      </c>
+      <c r="G55">
+        <v>4599.6899999999996</v>
+      </c>
+      <c r="H55">
+        <v>60899.319000000003</v>
+      </c>
+      <c r="I55">
+        <v>599.79100000000005</v>
+      </c>
+      <c r="J55">
+        <v>27013.284</v>
+      </c>
+      <c r="K55">
+        <v>73.537999999999997</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2771.9969999999998</v>
+      </c>
+      <c r="O55">
+        <v>30396.945</v>
+      </c>
+      <c r="P55">
+        <v>27211.907999999999</v>
+      </c>
+      <c r="Q55">
+        <v>-388.154</v>
+      </c>
+      <c r="R55">
+        <v>43830</v>
+      </c>
+      <c r="S55">
+        <v>1384</v>
+      </c>
+      <c r="T55">
+        <v>30502.374</v>
+      </c>
+      <c r="U55">
+        <v>2346.7130000000002</v>
+      </c>
+      <c r="V55">
+        <v>-2169.3690000000001</v>
+      </c>
+      <c r="W55">
+        <v>-77.117999999999995</v>
+      </c>
+      <c r="X55">
+        <v>1804.9390000000001</v>
+      </c>
+      <c r="Y55">
+        <v>125.086</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>523.44200000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>-1280.5239999999999</v>
+      </c>
+      <c r="D56">
+        <v>-4713.5479999999998</v>
+      </c>
+      <c r="E56">
+        <v>97.863</v>
+      </c>
+      <c r="F56">
+        <v>-4713.5479999999998</v>
+      </c>
+      <c r="G56">
+        <v>5169.3980000000001</v>
+      </c>
+      <c r="H56">
+        <v>55601.074999999997</v>
+      </c>
+      <c r="I56">
+        <v>768.17399999999998</v>
+      </c>
+      <c r="J56">
+        <v>26265.381000000001</v>
+      </c>
+      <c r="K56">
+        <v>80.718000000000004</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-2543.694</v>
+      </c>
+      <c r="N56">
+        <v>2175.5630000000001</v>
+      </c>
+      <c r="O56">
+        <v>29011.044999999998</v>
+      </c>
+      <c r="P56">
+        <v>26459.778999999999</v>
+      </c>
+      <c r="Q56">
+        <v>32.627000000000002</v>
+      </c>
+      <c r="R56">
+        <v>43921</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>26590.03</v>
+      </c>
+      <c r="U56">
+        <v>1982.2919999999999</v>
+      </c>
+      <c r="V56">
+        <v>-1406.4059999999999</v>
+      </c>
+      <c r="W56">
+        <v>-78.081999999999994</v>
+      </c>
+      <c r="X56">
+        <v>1510.2170000000001</v>
+      </c>
+      <c r="Y56">
+        <v>113.68</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>-1280.5239999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>706.96900000000005</v>
+      </c>
+      <c r="D57">
+        <v>2886.4949999999999</v>
+      </c>
+      <c r="E57">
+        <v>338.01499999999999</v>
+      </c>
+      <c r="F57">
+        <v>2886.4949999999999</v>
+      </c>
+      <c r="G57">
+        <v>6047.7550000000001</v>
+      </c>
+      <c r="H57">
+        <v>62110.381999999998</v>
+      </c>
+      <c r="I57">
+        <v>1286.345</v>
+      </c>
+      <c r="J57">
+        <v>28676.899000000001</v>
+      </c>
+      <c r="K57">
+        <v>182.911</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>3481.893</v>
+      </c>
+      <c r="O57">
+        <v>32715.72</v>
+      </c>
+      <c r="P57">
+        <v>28960.99</v>
+      </c>
+      <c r="Q57">
+        <v>468.58600000000001</v>
+      </c>
+      <c r="R57">
+        <v>44012</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>29394.662</v>
+      </c>
+      <c r="U57">
+        <v>2454.5410000000002</v>
+      </c>
+      <c r="V57">
+        <v>-1331.5329999999999</v>
+      </c>
+      <c r="W57">
+        <v>-83.596999999999994</v>
+      </c>
+      <c r="X57">
+        <v>1810.8969999999999</v>
+      </c>
+      <c r="Y57">
+        <v>101.18</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>706.96900000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>1064.8430000000001</v>
+      </c>
+      <c r="D58">
+        <v>4382.8220000000001</v>
+      </c>
+      <c r="E58">
+        <v>255.87100000000001</v>
+      </c>
+      <c r="F58">
+        <v>4382.8220000000001</v>
+      </c>
+      <c r="G58">
+        <v>8228.0149999999994</v>
+      </c>
+      <c r="H58">
+        <v>70655.332999999999</v>
+      </c>
+      <c r="I58">
+        <v>1509.4449999999999</v>
+      </c>
+      <c r="J58">
+        <v>31451.641</v>
+      </c>
+      <c r="K58">
+        <v>379.14800000000002</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>4488.6689999999999</v>
+      </c>
+      <c r="O58">
+        <v>36611.703000000001</v>
+      </c>
+      <c r="P58">
+        <v>31991.954000000002</v>
+      </c>
+      <c r="Q58">
+        <v>2149.2979999999998</v>
+      </c>
+      <c r="R58">
+        <v>44104</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>34043.629999999997</v>
+      </c>
+      <c r="U58">
+        <v>4363.1049999999996</v>
+      </c>
+      <c r="V58">
+        <v>-1409.4059999999999</v>
+      </c>
+      <c r="W58">
+        <v>-83.825999999999993</v>
+      </c>
+      <c r="X58">
+        <v>3566.2429999999999</v>
+      </c>
+      <c r="Y58">
+        <v>161.16499999999999</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>1064.8430000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
         <v>1511.221</v>
       </c>
-      <c r="D42">
+      <c r="D59">
         <v>5954.5360000000001</v>
       </c>
-      <c r="E42">
+      <c r="E59">
         <v>644.02800000000002</v>
       </c>
-      <c r="F42">
+      <c r="F59">
         <v>5954.5360000000001</v>
       </c>
-      <c r="G42">
+      <c r="G59">
         <v>9290.9869999999992</v>
       </c>
-      <c r="H42">
+      <c r="H59">
         <v>79806.501999999993</v>
       </c>
-      <c r="I42">
+      <c r="I59">
         <v>981.375</v>
       </c>
-      <c r="J42">
-        <v>33423.595999999998</v>
-      </c>
-      <c r="K42">
+      <c r="J59">
+        <v>28119.428</v>
+      </c>
+      <c r="K59">
         <v>678.678</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>4308.6909999999998</v>
-      </c>
-      <c r="O42">
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>9612.8590000000004</v>
+      </c>
+      <c r="O59">
         <v>39006.586000000003</v>
       </c>
-      <c r="P42">
+      <c r="P59">
         <v>34293.838000000003</v>
       </c>
-      <c r="Q42">
+      <c r="Q59">
         <v>1105.53</v>
       </c>
-      <c r="R42">
+      <c r="R59">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S59">
         <v>1583</v>
       </c>
-      <c r="T42">
+      <c r="T59">
         <v>40799.915999999997</v>
       </c>
-      <c r="U42">
+      <c r="U59">
         <v>5363.009</v>
       </c>
-      <c r="V42">
+      <c r="V59">
         <v>-1806.348</v>
       </c>
-      <c r="W42">
+      <c r="W59">
         <v>-108.374</v>
       </c>
-      <c r="X42">
+      <c r="X59">
         <v>2916.3470000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y59">
         <v>162.38800000000001</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
         <v>1511.221</v>
       </c>
     </row>
